--- a/struttura-completa.xlsx
+++ b/struttura-completa.xlsx
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>76</v>
       </c>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>88</v>
       </c>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>88</v>
       </c>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>88</v>
       </c>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>88</v>
       </c>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>88</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>88</v>
       </c>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>88</v>
       </c>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>88</v>
       </c>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>88</v>
       </c>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>88</v>
       </c>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>88</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>88</v>
       </c>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>88</v>
       </c>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>88</v>
       </c>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>88</v>
       </c>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>88</v>
       </c>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>88</v>
       </c>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>88</v>
       </c>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>88</v>
       </c>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>88</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>88</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>88</v>
       </c>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>88</v>
       </c>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>88</v>
       </c>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>88</v>
       </c>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>88</v>
       </c>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>88</v>
       </c>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>88</v>
       </c>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>88</v>
       </c>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>88</v>
       </c>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>88</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>88</v>
       </c>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>88</v>
       </c>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>88</v>
       </c>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>88</v>
       </c>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>88</v>
       </c>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>88</v>
       </c>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>88</v>
       </c>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>88</v>
       </c>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>88</v>
       </c>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>88</v>
       </c>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>88</v>
       </c>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>88</v>
       </c>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>88</v>
       </c>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>88</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>88</v>
       </c>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>88</v>
       </c>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>88</v>
       </c>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>88</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>88</v>
       </c>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="D392" s="6"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>88</v>
       </c>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="D393" s="6"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>88</v>
       </c>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="D394" s="6"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>88</v>
       </c>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="D395" s="6"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>88</v>
       </c>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="D396" s="6"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>88</v>
       </c>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="D398" s="6"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>88</v>
       </c>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="D399" s="6"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>88</v>
       </c>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="D400" s="6"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>88</v>
       </c>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="D401" s="6"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>88</v>
       </c>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="D402" s="6"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
         <v>88</v>
       </c>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="D403" s="6"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>88</v>
       </c>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="D404" s="6"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>88</v>
       </c>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="D405" s="6"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>88</v>
       </c>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="D406" s="6"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>88</v>
       </c>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="D407" s="6"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>88</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>88</v>
       </c>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="D409" s="6"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>88</v>
       </c>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="D414" s="6"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>88</v>
       </c>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="D469" s="6"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
         <v>88</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>88</v>
       </c>
@@ -12707,7 +12707,7 @@
       </c>
       <c r="D472" s="7"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>88</v>
       </c>

--- a/struttura-completa.xlsx
+++ b/struttura-completa.xlsx
@@ -2837,9 +2837,6 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>Ordine</t>
-  </si>
-  <si>
     <t>Albero</t>
   </si>
   <si>
@@ -4911,6 +4908,9 @@
   </si>
   <si>
     <t>2.4.12</t>
+  </si>
+  <si>
+    <t>Non Pubblicato</t>
   </si>
 </sst>
 </file>
@@ -6944,7 +6944,7 @@
   <dimension ref="A1:D862"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C851" sqref="C851:C862"/>
+      <selection activeCell="D861" sqref="D861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6963,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>937</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6979,9 +6979,7 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -6993,9 +6991,7 @@
       <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -7007,9 +7003,7 @@
       <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -7019,11 +7013,9 @@
         <v>75</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -7033,11 +7025,9 @@
         <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -7047,11 +7037,9 @@
         <v>78</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>941</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -7061,11 +7049,9 @@
         <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>942</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -7075,11 +7061,9 @@
         <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -7089,11 +7073,9 @@
         <v>81</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="D10" s="6">
-        <v>6</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -7103,11 +7085,9 @@
         <v>82</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="D11" s="6">
-        <v>7</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -7117,11 +7097,9 @@
         <v>83</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -7131,11 +7109,9 @@
         <v>84</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="D13" s="6">
-        <v>9</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -7145,11 +7121,9 @@
         <v>85</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="D14" s="6">
-        <v>10</v>
-      </c>
+        <v>947</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -7159,11 +7133,9 @@
         <v>86</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="D15" s="6">
-        <v>11</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -7173,11 +7145,9 @@
         <v>87</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="D16" s="6">
-        <v>12</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -7187,11 +7157,9 @@
         <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>951</v>
-      </c>
-      <c r="D17" s="6">
-        <v>13</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -7201,11 +7169,9 @@
         <v>90</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="D18" s="6">
-        <v>14</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -7215,11 +7181,9 @@
         <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>953</v>
-      </c>
-      <c r="D19" s="6">
-        <v>15</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -7229,11 +7193,9 @@
         <v>92</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="D20" s="6">
-        <v>16</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -7243,11 +7205,9 @@
         <v>93</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>955</v>
-      </c>
-      <c r="D21" s="6">
-        <v>17</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -7257,11 +7217,9 @@
         <v>94</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>956</v>
-      </c>
-      <c r="D22" s="6">
-        <v>18</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -7271,11 +7229,9 @@
         <v>95</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="D23" s="6">
-        <v>19</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -7287,9 +7243,7 @@
       <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -7299,7 +7253,7 @@
         <v>96</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -7311,7 +7265,7 @@
         <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -7323,7 +7277,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -7337,9 +7291,7 @@
       <c r="C28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -7375,9 +7327,7 @@
       <c r="C31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -7399,7 +7349,7 @@
         <v>100</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D33" s="6"/>
     </row>
@@ -7411,7 +7361,7 @@
         <v>101</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D34" s="6"/>
     </row>
@@ -7423,7 +7373,7 @@
         <v>102</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D35" s="6"/>
     </row>
@@ -7435,7 +7385,7 @@
         <v>103</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D36" s="6"/>
     </row>
@@ -7447,7 +7397,7 @@
         <v>58</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D37" s="6"/>
     </row>
@@ -7461,9 +7411,7 @@
       <c r="C38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -7485,7 +7433,7 @@
         <v>67</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D40" s="6"/>
     </row>
@@ -7497,7 +7445,7 @@
         <v>68</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -7509,7 +7457,7 @@
         <v>69</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D42" s="6"/>
     </row>
@@ -7521,7 +7469,7 @@
         <v>70</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D43" s="6"/>
     </row>
@@ -7533,7 +7481,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D44" s="6"/>
     </row>
@@ -7545,7 +7493,7 @@
         <v>72</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -7557,7 +7505,7 @@
         <v>73</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -7569,7 +7517,7 @@
         <v>74</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -7593,7 +7541,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D49" s="6"/>
     </row>
@@ -7605,7 +7553,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -7617,7 +7565,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -7629,7 +7577,7 @@
         <v>107</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -7641,7 +7589,7 @@
         <v>108</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D53" s="6"/>
     </row>
@@ -7653,7 +7601,7 @@
         <v>109</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D54" s="6"/>
     </row>
@@ -7665,7 +7613,7 @@
         <v>110</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D55" s="6"/>
     </row>
@@ -7677,7 +7625,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -7689,7 +7637,7 @@
         <v>112</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D57" s="6"/>
     </row>
@@ -7701,7 +7649,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -7713,7 +7661,7 @@
         <v>114</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -7725,7 +7673,7 @@
         <v>115</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D60" s="6"/>
     </row>
@@ -7737,7 +7685,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D61" s="6"/>
     </row>
@@ -7749,7 +7697,7 @@
         <v>117</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D62" s="6"/>
     </row>
@@ -7761,7 +7709,7 @@
         <v>118</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D63" s="6"/>
     </row>
@@ -7773,7 +7721,7 @@
         <v>119</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D64" s="6"/>
     </row>
@@ -7785,7 +7733,7 @@
         <v>120</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D65" s="6"/>
     </row>
@@ -7797,7 +7745,7 @@
         <v>121</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D66" s="6"/>
     </row>
@@ -7809,7 +7757,7 @@
         <v>122</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D67" s="6"/>
     </row>
@@ -7821,7 +7769,7 @@
         <v>123</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D68" s="6"/>
     </row>
@@ -7833,7 +7781,7 @@
         <v>124</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D69" s="6"/>
     </row>
@@ -7845,7 +7793,7 @@
         <v>125</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D70" s="6"/>
     </row>
@@ -7857,7 +7805,7 @@
         <v>126</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D71" s="13"/>
     </row>
@@ -7869,7 +7817,7 @@
         <v>127</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D72" s="13"/>
     </row>
@@ -7881,7 +7829,7 @@
         <v>128</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>130</v>
@@ -7895,7 +7843,7 @@
         <v>129</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D74" s="13"/>
     </row>
@@ -7933,9 +7881,7 @@
       <c r="C77" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="6">
-        <v>1</v>
-      </c>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
@@ -7981,7 +7927,7 @@
         <v>72</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D81" s="6"/>
     </row>
@@ -7993,7 +7939,7 @@
         <v>73</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D82" s="6"/>
     </row>
@@ -8005,7 +7951,7 @@
         <v>74</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D83" s="6"/>
     </row>
@@ -8029,7 +7975,7 @@
         <v>139</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D85" s="6"/>
     </row>
@@ -8041,7 +7987,7 @@
         <v>140</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D86" s="6"/>
     </row>
@@ -8053,7 +7999,7 @@
         <v>141</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D87" s="6"/>
     </row>
@@ -8065,7 +8011,7 @@
         <v>142</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D88" s="6"/>
     </row>
@@ -8077,7 +8023,7 @@
         <v>143</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D89" s="6"/>
     </row>
@@ -8089,7 +8035,7 @@
         <v>144</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D90" s="6"/>
     </row>
@@ -8101,7 +8047,7 @@
         <v>145</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D91" s="6"/>
     </row>
@@ -8113,7 +8059,7 @@
         <v>146</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D92" s="6"/>
     </row>
@@ -8125,7 +8071,7 @@
         <v>147</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D93" s="6"/>
     </row>
@@ -8137,7 +8083,7 @@
         <v>148</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D94" s="6"/>
     </row>
@@ -8149,7 +8095,7 @@
         <v>149</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D95" s="6"/>
     </row>
@@ -8161,7 +8107,7 @@
         <v>150</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D96" s="6"/>
     </row>
@@ -8173,7 +8119,7 @@
         <v>151</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D97" s="6"/>
     </row>
@@ -8185,7 +8131,7 @@
         <v>152</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D98" s="6"/>
     </row>
@@ -8197,7 +8143,7 @@
         <v>153</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D99" s="6"/>
     </row>
@@ -8209,7 +8155,7 @@
         <v>154</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D100" s="6"/>
     </row>
@@ -8221,7 +8167,7 @@
         <v>155</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D101" s="6"/>
     </row>
@@ -8233,7 +8179,7 @@
         <v>156</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D102" s="6"/>
     </row>
@@ -8245,7 +8191,7 @@
         <v>157</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D103" s="6"/>
     </row>
@@ -8257,7 +8203,7 @@
         <v>158</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D104" s="6"/>
     </row>
@@ -8269,7 +8215,7 @@
         <v>159</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D105" s="6"/>
     </row>
@@ -8281,7 +8227,7 @@
         <v>160</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D106" s="6"/>
     </row>
@@ -8293,7 +8239,7 @@
         <v>161</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D107" s="6"/>
     </row>
@@ -8305,7 +8251,7 @@
         <v>162</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D108" s="6"/>
     </row>
@@ -8317,7 +8263,7 @@
         <v>163</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D109" s="6"/>
     </row>
@@ -8329,7 +8275,7 @@
         <v>164</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D110" s="6"/>
     </row>
@@ -8341,7 +8287,7 @@
         <v>165</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D111" s="6"/>
     </row>
@@ -8353,7 +8299,7 @@
         <v>166</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D112" s="6"/>
     </row>
@@ -8367,9 +8313,7 @@
       <c r="C113" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="6">
-        <v>1</v>
-      </c>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
@@ -8391,7 +8335,7 @@
         <v>180</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D115" s="6"/>
     </row>
@@ -8403,7 +8347,7 @@
         <v>181</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D116" s="6"/>
     </row>
@@ -8415,7 +8359,7 @@
         <v>182</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D117" s="6"/>
     </row>
@@ -8427,7 +8371,7 @@
         <v>183</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D118" s="6"/>
     </row>
@@ -8439,7 +8383,7 @@
         <v>184</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D119" s="6"/>
     </row>
@@ -8451,7 +8395,7 @@
         <v>185</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D120" s="6"/>
     </row>
@@ -8463,7 +8407,7 @@
         <v>186</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D121" s="6"/>
     </row>
@@ -8475,7 +8419,7 @@
         <v>187</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D122" s="6"/>
     </row>
@@ -8487,7 +8431,7 @@
         <v>188</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D123" s="6"/>
     </row>
@@ -8499,7 +8443,7 @@
         <v>189</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D124" s="6"/>
     </row>
@@ -8523,7 +8467,7 @@
         <v>190</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D126" s="6"/>
     </row>
@@ -8535,7 +8479,7 @@
         <v>191</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D127" s="6"/>
     </row>
@@ -8547,7 +8491,7 @@
         <v>192</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D128" s="6"/>
     </row>
@@ -8559,7 +8503,7 @@
         <v>193</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D129" s="6"/>
     </row>
@@ -8571,7 +8515,7 @@
         <v>194</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D130" s="6"/>
     </row>
@@ -8583,7 +8527,7 @@
         <v>195</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D131" s="6"/>
     </row>
@@ -8595,7 +8539,7 @@
         <v>196</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D132" s="6"/>
     </row>
@@ -8607,7 +8551,7 @@
         <v>197</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D133" s="6"/>
     </row>
@@ -8619,7 +8563,7 @@
         <v>198</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D134" s="6"/>
     </row>
@@ -8631,7 +8575,7 @@
         <v>199</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D135" s="6"/>
     </row>
@@ -8643,7 +8587,7 @@
         <v>200</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D136" s="6"/>
     </row>
@@ -8655,7 +8599,7 @@
         <v>201</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D137" s="6"/>
     </row>
@@ -8679,7 +8623,7 @@
         <v>202</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D139" s="6"/>
     </row>
@@ -8727,7 +8671,7 @@
         <v>226</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D143" s="6"/>
     </row>
@@ -8739,7 +8683,7 @@
         <v>227</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D144" s="6"/>
     </row>
@@ -8751,7 +8695,7 @@
         <v>228</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D145" s="6"/>
     </row>
@@ -8763,7 +8707,7 @@
         <v>229</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D146" s="6"/>
     </row>
@@ -8775,7 +8719,7 @@
         <v>230</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D147" s="6"/>
     </row>
@@ -8787,7 +8731,7 @@
         <v>231</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D148" s="6"/>
     </row>
@@ -8799,7 +8743,7 @@
         <v>232</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D149" s="6"/>
     </row>
@@ -8811,7 +8755,7 @@
         <v>233</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D150" s="6"/>
     </row>
@@ -8823,7 +8767,7 @@
         <v>234</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D151" s="6"/>
     </row>
@@ -8835,7 +8779,7 @@
         <v>235</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D152" s="6"/>
     </row>
@@ -8847,7 +8791,7 @@
         <v>236</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D153" s="6"/>
     </row>
@@ -8859,7 +8803,7 @@
         <v>237</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D154" s="6"/>
     </row>
@@ -8895,7 +8839,7 @@
         <v>244</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D157" s="6"/>
     </row>
@@ -8907,7 +8851,7 @@
         <v>245</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D158" s="6"/>
     </row>
@@ -8919,7 +8863,7 @@
         <v>246</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D159" s="6"/>
     </row>
@@ -8931,7 +8875,7 @@
         <v>247</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D160" s="6"/>
     </row>
@@ -8943,7 +8887,7 @@
         <v>248</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D161" s="6"/>
     </row>
@@ -8955,7 +8899,7 @@
         <v>249</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D162" s="6"/>
     </row>
@@ -8979,7 +8923,7 @@
         <v>250</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D164" s="6"/>
     </row>
@@ -8991,7 +8935,7 @@
         <v>251</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D165" s="6"/>
     </row>
@@ -9015,7 +8959,7 @@
         <v>252</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D167" s="6"/>
     </row>
@@ -9051,7 +8995,7 @@
         <v>257</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D170" s="6"/>
     </row>
@@ -9063,7 +9007,7 @@
         <v>258</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D171" s="6"/>
     </row>
@@ -9075,7 +9019,7 @@
         <v>259</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D172" s="6"/>
     </row>
@@ -9087,7 +9031,7 @@
         <v>260</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D173" s="6"/>
     </row>
@@ -9099,7 +9043,7 @@
         <v>261</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D174" s="6"/>
     </row>
@@ -9111,7 +9055,7 @@
         <v>262</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D175" s="6"/>
     </row>
@@ -9123,7 +9067,7 @@
         <v>263</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D176" s="6"/>
     </row>
@@ -9135,7 +9079,7 @@
         <v>264</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D177" s="6"/>
     </row>
@@ -9147,7 +9091,7 @@
         <v>265</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D178" s="6"/>
     </row>
@@ -9159,7 +9103,7 @@
         <v>266</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D179" s="6"/>
     </row>
@@ -9183,7 +9127,7 @@
         <v>267</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D181" s="6"/>
     </row>
@@ -9195,7 +9139,7 @@
         <v>268</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D182" s="6"/>
     </row>
@@ -9207,7 +9151,7 @@
         <v>269</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D183" s="6"/>
     </row>
@@ -9219,7 +9163,7 @@
         <v>270</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D184" s="6"/>
     </row>
@@ -9231,7 +9175,7 @@
         <v>271</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D185" s="6"/>
     </row>
@@ -9243,7 +9187,7 @@
         <v>272</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D186" s="6"/>
     </row>
@@ -9255,7 +9199,7 @@
         <v>273</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D187" s="6"/>
     </row>
@@ -9267,7 +9211,7 @@
         <v>274</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D188" s="6"/>
     </row>
@@ -9279,7 +9223,7 @@
         <v>275</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D189" s="6"/>
     </row>
@@ -9315,7 +9259,7 @@
         <v>77</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D192" s="6"/>
     </row>
@@ -9327,7 +9271,7 @@
         <v>78</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D193" s="6"/>
     </row>
@@ -9339,7 +9283,7 @@
         <v>82</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D194" s="6"/>
     </row>
@@ -9351,7 +9295,7 @@
         <v>86</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D195" s="6"/>
     </row>
@@ -9363,7 +9307,7 @@
         <v>87</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D196" s="6"/>
     </row>
@@ -9387,7 +9331,7 @@
         <v>96</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D198" s="6"/>
     </row>
@@ -9399,7 +9343,7 @@
         <v>97</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D199" s="6"/>
     </row>
@@ -9411,7 +9355,7 @@
         <v>98</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D200" s="6"/>
     </row>
@@ -9471,7 +9415,7 @@
         <v>293</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D205" s="6"/>
     </row>
@@ -9483,7 +9427,7 @@
         <v>294</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D206" s="6"/>
     </row>
@@ -9495,7 +9439,7 @@
         <v>295</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D207" s="6"/>
     </row>
@@ -9507,7 +9451,7 @@
         <v>296</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D208" s="6"/>
     </row>
@@ -9519,7 +9463,7 @@
         <v>297</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D209" s="6"/>
     </row>
@@ -9531,7 +9475,7 @@
         <v>298</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D210" s="6"/>
     </row>
@@ -9555,7 +9499,7 @@
         <v>299</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D212" s="6"/>
     </row>
@@ -9567,7 +9511,7 @@
         <v>80</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D213" s="6"/>
     </row>
@@ -9579,7 +9523,7 @@
         <v>81</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D214" s="6"/>
     </row>
@@ -9591,7 +9535,7 @@
         <v>300</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D215" s="6"/>
     </row>
@@ -9603,7 +9547,7 @@
         <v>301</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D216" s="6"/>
     </row>
@@ -9615,7 +9559,7 @@
         <v>302</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D217" s="6"/>
     </row>
@@ -9627,7 +9571,7 @@
         <v>303</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D218" s="6"/>
     </row>
@@ -9639,7 +9583,7 @@
         <v>304</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D219" s="6"/>
     </row>
@@ -9651,7 +9595,7 @@
         <v>305</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D220" s="6"/>
     </row>
@@ -9663,7 +9607,7 @@
         <v>306</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D221" s="6"/>
     </row>
@@ -9675,7 +9619,7 @@
         <v>307</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D222" s="6"/>
     </row>
@@ -9687,7 +9631,7 @@
         <v>308</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D223" s="6"/>
     </row>
@@ -9699,7 +9643,7 @@
         <v>309</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D224" s="6"/>
     </row>
@@ -9723,7 +9667,7 @@
         <v>310</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D226" s="6"/>
     </row>
@@ -9735,7 +9679,7 @@
         <v>311</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D227" s="6"/>
     </row>
@@ -9759,7 +9703,7 @@
         <v>312</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D229" s="6"/>
     </row>
@@ -9783,7 +9727,7 @@
         <v>313</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D231" s="6"/>
     </row>
@@ -9795,7 +9739,7 @@
         <v>314</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D232" s="6"/>
     </row>
@@ -9807,7 +9751,7 @@
         <v>79</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D233" s="6"/>
     </row>
@@ -9819,7 +9763,7 @@
         <v>83</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D234" s="6"/>
     </row>
@@ -9831,7 +9775,7 @@
         <v>84</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D235" s="6"/>
     </row>
@@ -9843,7 +9787,7 @@
         <v>85</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D236" s="6"/>
     </row>
@@ -9855,7 +9799,7 @@
         <v>315</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D237" s="6"/>
     </row>
@@ -9915,7 +9859,7 @@
         <v>99</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D242" s="6"/>
     </row>
@@ -9927,7 +9871,7 @@
         <v>322</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D243" s="6"/>
     </row>
@@ -9939,7 +9883,7 @@
         <v>323</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D244" s="6"/>
     </row>
@@ -9951,7 +9895,7 @@
         <v>324</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D245" s="6"/>
     </row>
@@ -9987,7 +9931,7 @@
         <v>329</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D248" s="6"/>
     </row>
@@ -9999,7 +9943,7 @@
         <v>330</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D249" s="6"/>
     </row>
@@ -10011,7 +9955,7 @@
         <v>331</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D250" s="6"/>
     </row>
@@ -10023,7 +9967,7 @@
         <v>332</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D251" s="6"/>
     </row>
@@ -10035,7 +9979,7 @@
         <v>333</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D252" s="6"/>
     </row>
@@ -10047,7 +9991,7 @@
         <v>334</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D253" s="6"/>
     </row>
@@ -10071,7 +10015,7 @@
         <v>335</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D255" s="6"/>
     </row>
@@ -10107,7 +10051,7 @@
         <v>100</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D258" s="6"/>
     </row>
@@ -10119,7 +10063,7 @@
         <v>101</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D259" s="6"/>
     </row>
@@ -10155,7 +10099,7 @@
         <v>75</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D262" s="6"/>
     </row>
@@ -10167,7 +10111,7 @@
         <v>343</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D263" s="6"/>
     </row>
@@ -10179,7 +10123,7 @@
         <v>344</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D264" s="6"/>
     </row>
@@ -10191,7 +10135,7 @@
         <v>345</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D265" s="6"/>
     </row>
@@ -10203,7 +10147,7 @@
         <v>346</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D266" s="6"/>
     </row>
@@ -10215,7 +10159,7 @@
         <v>347</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D267" s="6"/>
     </row>
@@ -10227,7 +10171,7 @@
         <v>348</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D268" s="6"/>
     </row>
@@ -10239,7 +10183,7 @@
         <v>349</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D269" s="6"/>
     </row>
@@ -10323,7 +10267,7 @@
         <v>364</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D276" s="6"/>
     </row>
@@ -10395,7 +10339,7 @@
         <v>369</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D282" s="6"/>
     </row>
@@ -10407,7 +10351,7 @@
         <v>370</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D283" s="6"/>
     </row>
@@ -10419,7 +10363,7 @@
         <v>371</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D284" s="6"/>
     </row>
@@ -10431,7 +10375,7 @@
         <v>372</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D285" s="6"/>
     </row>
@@ -10443,7 +10387,7 @@
         <v>373</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D286" s="6"/>
     </row>
@@ -10467,7 +10411,7 @@
         <v>374</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D288" s="6"/>
     </row>
@@ -10479,7 +10423,7 @@
         <v>375</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D289" s="6"/>
     </row>
@@ -10491,7 +10435,7 @@
         <v>376</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D290" s="6"/>
     </row>
@@ -10503,7 +10447,7 @@
         <v>377</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D291" s="6"/>
     </row>
@@ -10539,7 +10483,7 @@
         <v>384</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D294" s="6"/>
     </row>
@@ -10563,7 +10507,7 @@
         <v>385</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D296" s="6"/>
     </row>
@@ -10575,7 +10519,7 @@
         <v>386</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D297" s="6"/>
     </row>
@@ -10599,7 +10543,7 @@
         <v>387</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D299" s="6"/>
     </row>
@@ -10611,7 +10555,7 @@
         <v>388</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D300" s="6"/>
     </row>
@@ -10623,7 +10567,7 @@
         <v>389</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D301" s="6"/>
     </row>
@@ -10635,7 +10579,7 @@
         <v>390</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D302" s="6"/>
     </row>
@@ -10647,7 +10591,7 @@
         <v>391</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D303" s="6"/>
     </row>
@@ -10659,7 +10603,7 @@
         <v>392</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D304" s="6"/>
     </row>
@@ -10671,7 +10615,7 @@
         <v>393</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D305" s="6"/>
     </row>
@@ -10683,7 +10627,7 @@
         <v>394</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D306" s="6"/>
     </row>
@@ -10707,7 +10651,7 @@
         <v>395</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D308" s="6"/>
     </row>
@@ -10719,7 +10663,7 @@
         <v>396</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D309" s="6"/>
     </row>
@@ -10731,7 +10675,7 @@
         <v>397</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D310" s="6"/>
     </row>
@@ -10755,7 +10699,7 @@
         <v>398</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D312" s="6"/>
     </row>
@@ -10767,7 +10711,7 @@
         <v>399</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D313" s="6"/>
     </row>
@@ -10779,7 +10723,7 @@
         <v>400</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D314" s="6"/>
     </row>
@@ -10791,7 +10735,7 @@
         <v>401</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D315" s="6"/>
     </row>
@@ -10803,7 +10747,7 @@
         <v>402</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D316" s="6"/>
     </row>
@@ -10829,9 +10773,7 @@
       <c r="C318" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D318" s="6">
-        <v>1</v>
-      </c>
+      <c r="D318" s="6"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="17" t="s">
@@ -10843,9 +10785,7 @@
       <c r="C319" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D319" s="6">
-        <v>1</v>
-      </c>
+      <c r="D319" s="6"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
@@ -10855,7 +10795,7 @@
         <v>403</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D320" s="6"/>
     </row>
@@ -10867,7 +10807,7 @@
         <v>404</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D321" s="6"/>
     </row>
@@ -10879,7 +10819,7 @@
         <v>405</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D322" s="6"/>
     </row>
@@ -10891,7 +10831,7 @@
         <v>406</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D323" s="6"/>
     </row>
@@ -10903,7 +10843,7 @@
         <v>234</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D324" s="6"/>
     </row>
@@ -10915,7 +10855,7 @@
         <v>407</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D325" s="6"/>
     </row>
@@ -10927,7 +10867,7 @@
         <v>408</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D326" s="6"/>
     </row>
@@ -10939,7 +10879,7 @@
         <v>409</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D327" s="6"/>
     </row>
@@ -10951,7 +10891,7 @@
         <v>410</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D328" s="6"/>
     </row>
@@ -10963,7 +10903,7 @@
         <v>236</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D329" s="6"/>
     </row>
@@ -10975,7 +10915,7 @@
         <v>411</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D330" s="6"/>
     </row>
@@ -10987,7 +10927,7 @@
         <v>412</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D331" s="6"/>
     </row>
@@ -10999,7 +10939,7 @@
         <v>413</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D332" s="6"/>
     </row>
@@ -11011,7 +10951,7 @@
         <v>414</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D333" s="6"/>
     </row>
@@ -11023,7 +10963,7 @@
         <v>415</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D334" s="6"/>
     </row>
@@ -11035,7 +10975,7 @@
         <v>416</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D335" s="6"/>
     </row>
@@ -11047,7 +10987,7 @@
         <v>417</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D336" s="6"/>
     </row>
@@ -11059,7 +10999,7 @@
         <v>418</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D337" s="6"/>
     </row>
@@ -11071,7 +11011,7 @@
         <v>419</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D338" s="6"/>
     </row>
@@ -11083,7 +11023,7 @@
         <v>226</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D339" s="6"/>
     </row>
@@ -11095,7 +11035,7 @@
         <v>229</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D340" s="6"/>
     </row>
@@ -11107,7 +11047,7 @@
         <v>230</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D341" s="6"/>
     </row>
@@ -11119,7 +11059,7 @@
         <v>231</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D342" s="6"/>
     </row>
@@ -11131,7 +11071,7 @@
         <v>420</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D343" s="6"/>
     </row>
@@ -11143,7 +11083,7 @@
         <v>421</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D344" s="6"/>
     </row>
@@ -11157,9 +11097,7 @@
       <c r="C345" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D345" s="6">
-        <v>1</v>
-      </c>
+      <c r="D345" s="6"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="17" t="s">
@@ -11207,9 +11145,7 @@
       <c r="C349" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D349" s="6">
-        <v>1</v>
-      </c>
+      <c r="D349" s="6"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="17" t="s">
@@ -11243,7 +11179,7 @@
         <v>440</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D352" s="6"/>
     </row>
@@ -11255,7 +11191,7 @@
         <v>441</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D353" s="6"/>
     </row>
@@ -11267,7 +11203,7 @@
         <v>442</v>
       </c>
       <c r="C354" s="9" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D354" s="6"/>
     </row>
@@ -11279,7 +11215,7 @@
         <v>443</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D355" s="6"/>
     </row>
@@ -11291,7 +11227,7 @@
         <v>444</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D356" s="6"/>
     </row>
@@ -11303,7 +11239,7 @@
         <v>445</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D357" s="6"/>
     </row>
@@ -11315,7 +11251,7 @@
         <v>446</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D358" s="6"/>
     </row>
@@ -11327,7 +11263,7 @@
         <v>447</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D359" s="6"/>
     </row>
@@ -11339,7 +11275,7 @@
         <v>448</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D360" s="6"/>
     </row>
@@ -11351,7 +11287,7 @@
         <v>449</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D361" s="6"/>
     </row>
@@ -11363,7 +11299,7 @@
         <v>450</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D362" s="6"/>
     </row>
@@ -11375,7 +11311,7 @@
         <v>451</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D363" s="6"/>
     </row>
@@ -11387,7 +11323,7 @@
         <v>452</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D364" s="6"/>
     </row>
@@ -11399,7 +11335,7 @@
         <v>453</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D365" s="6"/>
     </row>
@@ -11411,7 +11347,7 @@
         <v>454</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D366" s="6"/>
     </row>
@@ -11423,7 +11359,7 @@
         <v>455</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D367" s="6"/>
     </row>
@@ -11435,7 +11371,7 @@
         <v>456</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D368" s="6"/>
     </row>
@@ -11447,7 +11383,7 @@
         <v>457</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D369" s="6"/>
     </row>
@@ -11459,7 +11395,7 @@
         <v>458</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D370" s="6"/>
     </row>
@@ -11471,7 +11407,7 @@
         <v>459</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D371" s="6"/>
     </row>
@@ -11483,7 +11419,7 @@
         <v>460</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D372" s="6"/>
     </row>
@@ -11495,7 +11431,7 @@
         <v>461</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D373" s="6"/>
     </row>
@@ -11507,7 +11443,7 @@
         <v>462</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D374" s="6"/>
     </row>
@@ -11519,7 +11455,7 @@
         <v>463</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D375" s="6"/>
     </row>
@@ -11531,7 +11467,7 @@
         <v>464</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D376" s="6"/>
     </row>
@@ -11543,7 +11479,7 @@
         <v>465</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D377" s="6"/>
     </row>
@@ -11555,7 +11491,7 @@
         <v>466</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D378" s="6"/>
     </row>
@@ -11579,7 +11515,7 @@
         <v>467</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D380" s="6"/>
     </row>
@@ -11591,7 +11527,7 @@
         <v>468</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D381" s="6"/>
     </row>
@@ -11615,7 +11551,7 @@
         <v>469</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D383" s="7" t="s">
         <v>470</v>
@@ -11629,7 +11565,7 @@
         <v>471</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D384" s="6"/>
     </row>
@@ -11641,7 +11577,7 @@
         <v>472</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>470</v>
@@ -11655,7 +11591,7 @@
         <v>473</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D386" s="6"/>
     </row>
@@ -11667,7 +11603,7 @@
         <v>474</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D387" s="6"/>
     </row>
@@ -11679,7 +11615,7 @@
         <v>475</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D388" s="6"/>
     </row>
@@ -11691,7 +11627,7 @@
         <v>476</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D389" s="7" t="s">
         <v>470</v>
@@ -11705,7 +11641,7 @@
         <v>477</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D390" s="6"/>
     </row>
@@ -11717,7 +11653,7 @@
         <v>478</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D391" s="6"/>
     </row>
@@ -11729,7 +11665,7 @@
         <v>479</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D392" s="6"/>
     </row>
@@ -11741,7 +11677,7 @@
         <v>480</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D393" s="6"/>
     </row>
@@ -11753,7 +11689,7 @@
         <v>481</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D394" s="6"/>
     </row>
@@ -11765,7 +11701,7 @@
         <v>482</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D395" s="6"/>
     </row>
@@ -11777,7 +11713,7 @@
         <v>483</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D396" s="6"/>
     </row>
@@ -11789,7 +11725,7 @@
         <v>484</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D397" s="6"/>
     </row>
@@ -11801,7 +11737,7 @@
         <v>485</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D398" s="6"/>
     </row>
@@ -11813,7 +11749,7 @@
         <v>486</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D399" s="6"/>
     </row>
@@ -11825,7 +11761,7 @@
         <v>487</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D400" s="6"/>
     </row>
@@ -11837,7 +11773,7 @@
         <v>488</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D401" s="6"/>
     </row>
@@ -11849,7 +11785,7 @@
         <v>489</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D402" s="6"/>
     </row>
@@ -11861,7 +11797,7 @@
         <v>490</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D403" s="6"/>
     </row>
@@ -11873,7 +11809,7 @@
         <v>491</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D404" s="6"/>
     </row>
@@ -11885,7 +11821,7 @@
         <v>492</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D405" s="6"/>
     </row>
@@ -11897,7 +11833,7 @@
         <v>493</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D406" s="6"/>
     </row>
@@ -11909,7 +11845,7 @@
         <v>494</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D407" s="6"/>
     </row>
@@ -11921,7 +11857,7 @@
         <v>495</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D408" s="7" t="s">
         <v>470</v>
@@ -11935,7 +11871,7 @@
         <v>496</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D409" s="6"/>
     </row>
@@ -11947,7 +11883,7 @@
         <v>497</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D410" s="6"/>
     </row>
@@ -11959,7 +11895,7 @@
         <v>498</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D411" s="6"/>
     </row>
@@ -11971,7 +11907,7 @@
         <v>499</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D412" s="6"/>
     </row>
@@ -11983,7 +11919,7 @@
         <v>500</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D413" s="6"/>
     </row>
@@ -11995,7 +11931,7 @@
         <v>501</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D414" s="6"/>
     </row>
@@ -12007,7 +11943,7 @@
         <v>502</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D415" s="6"/>
     </row>
@@ -12043,7 +11979,7 @@
         <v>503</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D418" s="6"/>
     </row>
@@ -12057,9 +11993,7 @@
       <c r="C419" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D419" s="6">
-        <v>1</v>
-      </c>
+      <c r="D419" s="6"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="17" t="s">
@@ -12071,9 +12005,7 @@
       <c r="C420" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D420" s="6">
-        <v>1</v>
-      </c>
+      <c r="D420" s="6"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
@@ -12083,7 +12015,7 @@
         <v>257</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D421" s="6"/>
     </row>
@@ -12095,7 +12027,7 @@
         <v>258</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D422" s="6"/>
     </row>
@@ -12107,7 +12039,7 @@
         <v>259</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D423" s="6"/>
     </row>
@@ -12119,7 +12051,7 @@
         <v>261</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D424" s="6"/>
     </row>
@@ -12131,7 +12063,7 @@
         <v>329</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D425" s="6"/>
     </row>
@@ -12143,7 +12075,7 @@
         <v>332</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D426" s="6"/>
     </row>
@@ -12155,7 +12087,7 @@
         <v>335</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D427" s="6"/>
     </row>
@@ -12167,7 +12099,7 @@
         <v>504</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D428" s="6"/>
     </row>
@@ -12179,7 +12111,7 @@
         <v>401</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D429" s="6"/>
     </row>
@@ -12191,7 +12123,7 @@
         <v>400</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D430" s="6"/>
     </row>
@@ -12203,7 +12135,7 @@
         <v>399</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D431" s="6"/>
     </row>
@@ -12215,7 +12147,7 @@
         <v>398</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D432" s="6"/>
     </row>
@@ -12227,7 +12159,7 @@
         <v>402</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D433" s="6"/>
     </row>
@@ -12241,9 +12173,7 @@
       <c r="C434" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D434" s="6">
-        <v>1</v>
-      </c>
+      <c r="D434" s="6"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
@@ -12253,7 +12183,7 @@
         <v>505</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D435" s="6"/>
     </row>
@@ -12265,7 +12195,7 @@
         <v>396</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D436" s="6"/>
     </row>
@@ -12279,9 +12209,7 @@
       <c r="C437" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D437" s="6">
-        <v>1</v>
-      </c>
+      <c r="D437" s="6"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="17" t="s">
@@ -12303,7 +12231,7 @@
         <v>67</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D439" s="6"/>
     </row>
@@ -12315,7 +12243,7 @@
         <v>68</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D440" s="6"/>
     </row>
@@ -12327,7 +12255,7 @@
         <v>69</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D441" s="6"/>
     </row>
@@ -12339,7 +12267,7 @@
         <v>70</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D442" s="6"/>
     </row>
@@ -12351,7 +12279,7 @@
         <v>71</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D443" s="6"/>
     </row>
@@ -12411,7 +12339,7 @@
         <v>523</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D448" s="6"/>
     </row>
@@ -12423,7 +12351,7 @@
         <v>524</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D449" s="6"/>
     </row>
@@ -12435,7 +12363,7 @@
         <v>525</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D450" s="6"/>
     </row>
@@ -12447,7 +12375,7 @@
         <v>526</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D451" s="6"/>
     </row>
@@ -12459,7 +12387,7 @@
         <v>527</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D452" s="6"/>
     </row>
@@ -12471,7 +12399,7 @@
         <v>528</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D453" s="6"/>
     </row>
@@ -12483,7 +12411,7 @@
         <v>529</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D454" s="6"/>
     </row>
@@ -12495,7 +12423,7 @@
         <v>530</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D455" s="6"/>
     </row>
@@ -12543,7 +12471,7 @@
         <v>533</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D459" s="6"/>
     </row>
@@ -12555,7 +12483,7 @@
         <v>533</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D460" s="6"/>
     </row>
@@ -12567,7 +12495,7 @@
         <v>534</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D461" s="6"/>
     </row>
@@ -12603,7 +12531,7 @@
         <v>535</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D464" s="6"/>
     </row>
@@ -12615,7 +12543,7 @@
         <v>536</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D465" s="6"/>
     </row>
@@ -12627,7 +12555,7 @@
         <v>537</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D466" s="6"/>
     </row>
@@ -12639,7 +12567,7 @@
         <v>538</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D467" s="6"/>
     </row>
@@ -12651,7 +12579,7 @@
         <v>539</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D468" s="6"/>
     </row>
@@ -12663,7 +12591,7 @@
         <v>540</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D469" s="6"/>
     </row>
@@ -12675,7 +12603,7 @@
         <v>541</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D470" s="7" t="s">
         <v>470</v>
@@ -12689,7 +12617,7 @@
         <v>542</v>
       </c>
       <c r="C471" s="7" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D471" s="7" t="s">
         <v>470</v>
@@ -12703,7 +12631,7 @@
         <v>543</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D472" s="7"/>
     </row>
@@ -12715,7 +12643,7 @@
         <v>544</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D473" s="7"/>
     </row>
@@ -12727,7 +12655,7 @@
         <v>535</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D474" s="7" t="s">
         <v>470</v>
@@ -12743,9 +12671,7 @@
       <c r="C475" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D475" s="6">
-        <v>1</v>
-      </c>
+      <c r="D475" s="6"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
@@ -12757,9 +12683,7 @@
       <c r="C476" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D476" s="6">
-        <v>1</v>
-      </c>
+      <c r="D476" s="6"/>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
@@ -12795,9 +12719,7 @@
       <c r="C479" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D479" s="6">
-        <v>1</v>
-      </c>
+      <c r="D479" s="6"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
@@ -12845,9 +12767,7 @@
       <c r="C483" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D483" s="6">
-        <v>1</v>
-      </c>
+      <c r="D483" s="6"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
@@ -12869,7 +12789,7 @@
         <v>293</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D485" s="6"/>
     </row>
@@ -12881,7 +12801,7 @@
         <v>294</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D486" s="6"/>
     </row>
@@ -12893,7 +12813,7 @@
         <v>298</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D487" s="6"/>
     </row>
@@ -12925,7 +12845,7 @@
         <v>563</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D490" s="6"/>
     </row>
@@ -12937,7 +12857,7 @@
         <v>564</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D491" s="6"/>
     </row>
@@ -12959,9 +12879,7 @@
       <c r="C493" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D493" s="6">
-        <v>1</v>
-      </c>
+      <c r="D493" s="6"/>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B494" s="14" t="s">
@@ -13002,7 +12920,7 @@
         <v>392</v>
       </c>
       <c r="C497" s="9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D497" s="6"/>
     </row>
@@ -13014,7 +12932,7 @@
         <v>385</v>
       </c>
       <c r="C498" s="9" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D498" s="6"/>
     </row>
@@ -13026,7 +12944,7 @@
         <v>393</v>
       </c>
       <c r="C499" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D499" s="6"/>
     </row>
@@ -13038,7 +12956,7 @@
         <v>386</v>
       </c>
       <c r="C500" s="9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D500" s="6"/>
     </row>
@@ -13050,7 +12968,7 @@
         <v>394</v>
       </c>
       <c r="C501" s="9" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D501" s="6"/>
     </row>
@@ -13062,7 +12980,7 @@
         <v>272</v>
       </c>
       <c r="C502" s="9" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D502" s="6"/>
     </row>
@@ -13074,7 +12992,7 @@
         <v>260</v>
       </c>
       <c r="C503" s="9" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D503" s="6"/>
     </row>
@@ -13086,7 +13004,7 @@
         <v>571</v>
       </c>
       <c r="C504" s="9" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D504" s="6"/>
     </row>
@@ -13098,7 +13016,7 @@
         <v>572</v>
       </c>
       <c r="C505" s="9" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D505" s="6"/>
     </row>
@@ -13112,9 +13030,7 @@
       <c r="C506" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D506" s="6">
-        <v>1</v>
-      </c>
+      <c r="D506" s="6"/>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="6" t="s">
@@ -13124,7 +13040,7 @@
         <v>505</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D507" s="6"/>
     </row>
@@ -13138,9 +13054,7 @@
       <c r="C508" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D508" s="6">
-        <v>2</v>
-      </c>
+      <c r="D508" s="6"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
@@ -13242,7 +13156,7 @@
         <v>597</v>
       </c>
       <c r="C516" s="6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D516" s="6"/>
     </row>
@@ -13254,7 +13168,7 @@
         <v>598</v>
       </c>
       <c r="C517" s="6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D517" s="6"/>
     </row>
@@ -13266,7 +13180,7 @@
         <v>599</v>
       </c>
       <c r="C518" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D518" s="6"/>
     </row>
@@ -13278,7 +13192,7 @@
         <v>138</v>
       </c>
       <c r="C519" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D519" s="6"/>
     </row>
@@ -13290,7 +13204,7 @@
         <v>607</v>
       </c>
       <c r="C520" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D520" s="6"/>
     </row>
@@ -13302,7 +13216,7 @@
         <v>608</v>
       </c>
       <c r="C521" s="6" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D521" s="6"/>
     </row>
@@ -13314,7 +13228,7 @@
         <v>609</v>
       </c>
       <c r="C522" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D522" s="6"/>
     </row>
@@ -13326,7 +13240,7 @@
         <v>610</v>
       </c>
       <c r="C523" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D523" s="6"/>
     </row>
@@ -13338,7 +13252,7 @@
         <v>611</v>
       </c>
       <c r="C524" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D524" s="6"/>
     </row>
@@ -13350,7 +13264,7 @@
         <v>612</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D525" s="6"/>
     </row>
@@ -13362,7 +13276,7 @@
         <v>613</v>
       </c>
       <c r="C526" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D526" s="6"/>
     </row>
@@ -13374,7 +13288,7 @@
         <v>614</v>
       </c>
       <c r="C527" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D527" s="6"/>
     </row>
@@ -13386,7 +13300,7 @@
         <v>615</v>
       </c>
       <c r="C528" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D528" s="6"/>
     </row>
@@ -13398,7 +13312,7 @@
         <v>616</v>
       </c>
       <c r="C529" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D529" s="6"/>
     </row>
@@ -13410,7 +13324,7 @@
         <v>617</v>
       </c>
       <c r="C530" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D530" s="6"/>
     </row>
@@ -13422,7 +13336,7 @@
         <v>618</v>
       </c>
       <c r="C531" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D531" s="6"/>
     </row>
@@ -13434,7 +13348,7 @@
         <v>619</v>
       </c>
       <c r="C532" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D532" s="6"/>
     </row>
@@ -13446,7 +13360,7 @@
         <v>620</v>
       </c>
       <c r="C533" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D533" s="6"/>
     </row>
@@ -13458,7 +13372,7 @@
         <v>621</v>
       </c>
       <c r="C534" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D534" s="6"/>
     </row>
@@ -13470,7 +13384,7 @@
         <v>622</v>
       </c>
       <c r="C535" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D535" s="6"/>
     </row>
@@ -13482,7 +13396,7 @@
         <v>623</v>
       </c>
       <c r="C536" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D536" s="6"/>
     </row>
@@ -13494,7 +13408,7 @@
         <v>624</v>
       </c>
       <c r="C537" s="6" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D537" s="6"/>
     </row>
@@ -13506,7 +13420,7 @@
         <v>625</v>
       </c>
       <c r="C538" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D538" s="6"/>
     </row>
@@ -13518,7 +13432,7 @@
         <v>626</v>
       </c>
       <c r="C539" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D539" s="6"/>
     </row>
@@ -13530,7 +13444,7 @@
         <v>627</v>
       </c>
       <c r="C540" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D540" s="6"/>
     </row>
@@ -13542,7 +13456,7 @@
         <v>628</v>
       </c>
       <c r="C541" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D541" s="6"/>
     </row>
@@ -13554,7 +13468,7 @@
         <v>629</v>
       </c>
       <c r="C542" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D542" s="6"/>
     </row>
@@ -13566,7 +13480,7 @@
         <v>630</v>
       </c>
       <c r="C543" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D543" s="6"/>
     </row>
@@ -13578,7 +13492,7 @@
         <v>631</v>
       </c>
       <c r="C544" s="6" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D544" s="6"/>
     </row>
@@ -13590,7 +13504,7 @@
         <v>630</v>
       </c>
       <c r="C545" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D545" s="6"/>
     </row>
@@ -13602,7 +13516,7 @@
         <v>601</v>
       </c>
       <c r="C546" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D546" s="6"/>
     </row>
@@ -13614,7 +13528,7 @@
         <v>632</v>
       </c>
       <c r="C547" s="6" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D547" s="7" t="s">
         <v>470</v>
@@ -13628,7 +13542,7 @@
         <v>633</v>
       </c>
       <c r="C548" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D548" s="7"/>
     </row>
@@ -13640,7 +13554,7 @@
         <v>634</v>
       </c>
       <c r="C549" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D549" s="7"/>
     </row>
@@ -13652,7 +13566,7 @@
         <v>635</v>
       </c>
       <c r="C550" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D550" s="7"/>
     </row>
@@ -13664,7 +13578,7 @@
         <v>636</v>
       </c>
       <c r="C551" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D551" s="7"/>
     </row>
@@ -13676,7 +13590,7 @@
         <v>637</v>
       </c>
       <c r="C552" s="6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D552" s="7"/>
     </row>
@@ -13688,7 +13602,7 @@
         <v>638</v>
       </c>
       <c r="C553" s="6" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D553" s="7" t="s">
         <v>470</v>
@@ -13702,7 +13616,7 @@
         <v>639</v>
       </c>
       <c r="C554" s="6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D554" s="7" t="s">
         <v>470</v>
@@ -13716,7 +13630,7 @@
         <v>640</v>
       </c>
       <c r="C555" s="6" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D555" s="7" t="s">
         <v>470</v>
@@ -13730,7 +13644,7 @@
         <v>641</v>
       </c>
       <c r="C556" s="6" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D556" s="7" t="s">
         <v>470</v>
@@ -13744,7 +13658,7 @@
         <v>642</v>
       </c>
       <c r="C557" s="6" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D557" s="7" t="s">
         <v>470</v>
@@ -13758,7 +13672,7 @@
         <v>643</v>
       </c>
       <c r="C558" s="6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D558" s="7" t="s">
         <v>470</v>
@@ -13772,7 +13686,7 @@
         <v>644</v>
       </c>
       <c r="C559" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D559" s="7" t="s">
         <v>470</v>
@@ -13786,7 +13700,7 @@
         <v>645</v>
       </c>
       <c r="C560" s="6" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D560" s="7" t="s">
         <v>470</v>
@@ -13800,7 +13714,7 @@
         <v>646</v>
       </c>
       <c r="C561" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D561" s="7" t="s">
         <v>470</v>
@@ -13814,7 +13728,7 @@
         <v>647</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D562" s="7" t="s">
         <v>470</v>
@@ -13828,7 +13742,7 @@
         <v>648</v>
       </c>
       <c r="C563" s="6" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D563" s="6"/>
     </row>
@@ -13840,7 +13754,7 @@
         <v>649</v>
       </c>
       <c r="C564" s="6" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D564" s="6"/>
     </row>
@@ -13852,7 +13766,7 @@
         <v>650</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D565" s="6"/>
     </row>
@@ -13864,7 +13778,7 @@
         <v>633</v>
       </c>
       <c r="C566" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D566" s="6"/>
     </row>
@@ -13876,7 +13790,7 @@
         <v>603</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D567" s="6"/>
     </row>
@@ -13888,7 +13802,7 @@
         <v>604</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D568" s="6"/>
     </row>
@@ -13900,7 +13814,7 @@
         <v>605</v>
       </c>
       <c r="C569" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D569" s="6"/>
     </row>
@@ -13912,7 +13826,7 @@
         <v>606</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D570" s="6"/>
     </row>
@@ -13950,7 +13864,7 @@
         <v>651</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D573" s="7"/>
     </row>
@@ -13962,7 +13876,7 @@
         <v>652</v>
       </c>
       <c r="C574" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D574" s="7"/>
     </row>
@@ -13974,7 +13888,7 @@
         <v>653</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D575" s="7"/>
     </row>
@@ -13986,7 +13900,7 @@
         <v>654</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D576" s="7"/>
     </row>
@@ -13998,7 +13912,7 @@
         <v>655</v>
       </c>
       <c r="C577" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D577" s="7"/>
     </row>
@@ -14010,7 +13924,7 @@
         <v>656</v>
       </c>
       <c r="C578" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D578" s="7"/>
     </row>
@@ -14022,7 +13936,7 @@
         <v>657</v>
       </c>
       <c r="C579" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D579" s="7" t="s">
         <v>470</v>
@@ -14036,7 +13950,7 @@
         <v>658</v>
       </c>
       <c r="C580" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D580" s="6"/>
     </row>
@@ -14048,7 +13962,7 @@
         <v>659</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D581" s="6"/>
     </row>
@@ -14060,7 +13974,7 @@
         <v>660</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D582" s="6"/>
     </row>
@@ -14072,7 +13986,7 @@
         <v>661</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D583" s="6"/>
     </row>
@@ -14084,7 +13998,7 @@
         <v>662</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D584" s="6"/>
     </row>
@@ -14096,7 +14010,7 @@
         <v>663</v>
       </c>
       <c r="C585" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D585" s="6"/>
     </row>
@@ -14108,7 +14022,7 @@
         <v>664</v>
       </c>
       <c r="C586" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D586" s="6"/>
     </row>
@@ -14120,7 +14034,7 @@
         <v>665</v>
       </c>
       <c r="C587" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D587" s="6"/>
     </row>
@@ -14132,7 +14046,7 @@
         <v>666</v>
       </c>
       <c r="C588" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D588" s="6"/>
     </row>
@@ -14144,7 +14058,7 @@
         <v>667</v>
       </c>
       <c r="C589" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D589" s="6"/>
     </row>
@@ -14156,7 +14070,7 @@
         <v>668</v>
       </c>
       <c r="C590" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D590" s="6"/>
     </row>
@@ -14168,7 +14082,7 @@
         <v>669</v>
       </c>
       <c r="C591" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D591" s="6"/>
     </row>
@@ -14270,7 +14184,7 @@
         <v>673</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D599" s="6"/>
     </row>
@@ -14282,7 +14196,7 @@
         <v>674</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D600" s="6"/>
     </row>
@@ -14294,7 +14208,7 @@
         <v>675</v>
       </c>
       <c r="C601" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D601" s="6"/>
     </row>
@@ -14306,7 +14220,7 @@
         <v>676</v>
       </c>
       <c r="C602" s="6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D602" s="6"/>
     </row>
@@ -14318,7 +14232,7 @@
         <v>677</v>
       </c>
       <c r="C603" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D603" s="6"/>
     </row>
@@ -14330,7 +14244,7 @@
         <v>678</v>
       </c>
       <c r="C604" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D604" s="6"/>
     </row>
@@ -14342,7 +14256,7 @@
         <v>679</v>
       </c>
       <c r="C605" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D605" s="6"/>
     </row>
@@ -14351,10 +14265,10 @@
         <v>595</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D606" s="6"/>
     </row>
@@ -14363,10 +14277,10 @@
         <v>595</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C607" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D607" s="6"/>
     </row>
@@ -14378,7 +14292,7 @@
         <v>681</v>
       </c>
       <c r="C608" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D608" s="6"/>
     </row>
@@ -14387,10 +14301,10 @@
         <v>595</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C609" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D609" s="6"/>
     </row>
@@ -14399,10 +14313,10 @@
         <v>595</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C610" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D610" s="6"/>
     </row>
@@ -14411,10 +14325,10 @@
         <v>595</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C611" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D611" s="6"/>
     </row>
@@ -14423,10 +14337,10 @@
         <v>595</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C612" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D612" s="6"/>
     </row>
@@ -14438,7 +14352,7 @@
         <v>682</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D613" s="6"/>
     </row>
@@ -14450,7 +14364,7 @@
         <v>683</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D614" s="6"/>
     </row>
@@ -14514,7 +14428,7 @@
         <v>687</v>
       </c>
       <c r="C619" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D619" s="7"/>
     </row>
@@ -14526,7 +14440,7 @@
         <v>688</v>
       </c>
       <c r="C620" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D620" s="7"/>
     </row>
@@ -14538,7 +14452,7 @@
         <v>690</v>
       </c>
       <c r="C621" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D621" s="7"/>
     </row>
@@ -14550,7 +14464,7 @@
         <v>691</v>
       </c>
       <c r="C622" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D622" s="7"/>
     </row>
@@ -14562,7 +14476,7 @@
         <v>692</v>
       </c>
       <c r="C623" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D623" s="7"/>
     </row>
@@ -14574,7 +14488,7 @@
         <v>693</v>
       </c>
       <c r="C624" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D624" s="7"/>
     </row>
@@ -14586,7 +14500,7 @@
         <v>694</v>
       </c>
       <c r="C625" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D625" s="7"/>
     </row>
@@ -14598,7 +14512,7 @@
         <v>695</v>
       </c>
       <c r="C626" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D626" s="7"/>
     </row>
@@ -14610,7 +14524,7 @@
         <v>696</v>
       </c>
       <c r="C627" s="6" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D627" s="7"/>
     </row>
@@ -14712,9 +14626,7 @@
       <c r="C635" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D635" s="6">
-        <v>2</v>
-      </c>
+      <c r="D635" s="6"/>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="6" t="s">
@@ -14736,7 +14648,7 @@
         <v>703</v>
       </c>
       <c r="C637" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D637" s="6"/>
     </row>
@@ -14748,7 +14660,7 @@
         <v>704</v>
       </c>
       <c r="C638" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D638" s="6"/>
     </row>
@@ -14760,7 +14672,7 @@
         <v>705</v>
       </c>
       <c r="C639" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D639" s="7" t="s">
         <v>470</v>
@@ -14774,7 +14686,7 @@
         <v>706</v>
       </c>
       <c r="C640" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D640" s="7"/>
     </row>
@@ -14786,7 +14698,7 @@
         <v>707</v>
       </c>
       <c r="C641" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D641" s="7" t="s">
         <v>470</v>
@@ -14800,7 +14712,7 @@
         <v>708</v>
       </c>
       <c r="C642" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D642" s="7" t="s">
         <v>470</v>
@@ -14814,7 +14726,7 @@
         <v>709</v>
       </c>
       <c r="C643" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D643" s="7" t="s">
         <v>470</v>
@@ -14828,7 +14740,7 @@
         <v>710</v>
       </c>
       <c r="C644" s="6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D644" s="6"/>
     </row>
@@ -14840,7 +14752,7 @@
         <v>711</v>
       </c>
       <c r="C645" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D645" s="6"/>
     </row>
@@ -14852,7 +14764,7 @@
         <v>712</v>
       </c>
       <c r="C646" s="6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D646" s="6"/>
     </row>
@@ -14864,7 +14776,7 @@
         <v>713</v>
       </c>
       <c r="C647" s="6" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D647" s="6"/>
     </row>
@@ -14876,7 +14788,7 @@
         <v>714</v>
       </c>
       <c r="C648" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D648" s="6"/>
     </row>
@@ -14888,7 +14800,7 @@
         <v>715</v>
       </c>
       <c r="C649" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D649" s="6"/>
     </row>
@@ -14900,7 +14812,7 @@
         <v>716</v>
       </c>
       <c r="C650" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D650" s="6"/>
     </row>
@@ -14912,7 +14824,7 @@
         <v>717</v>
       </c>
       <c r="C651" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D651" s="6"/>
     </row>
@@ -14924,7 +14836,7 @@
         <v>718</v>
       </c>
       <c r="C652" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D652" s="6"/>
     </row>
@@ -14936,7 +14848,7 @@
         <v>719</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D653" s="6"/>
     </row>
@@ -14948,7 +14860,7 @@
         <v>720</v>
       </c>
       <c r="C654" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D654" s="6"/>
     </row>
@@ -14960,7 +14872,7 @@
         <v>721</v>
       </c>
       <c r="C655" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D655" s="6"/>
     </row>
@@ -14972,7 +14884,7 @@
         <v>722</v>
       </c>
       <c r="C656" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D656" s="6"/>
     </row>
@@ -14984,7 +14896,7 @@
         <v>723</v>
       </c>
       <c r="C657" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D657" s="6"/>
     </row>
@@ -14996,7 +14908,7 @@
         <v>724</v>
       </c>
       <c r="C658" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D658" s="6"/>
     </row>
@@ -15022,9 +14934,7 @@
       <c r="C660" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D660" s="6">
-        <v>2</v>
-      </c>
+      <c r="D660" s="6"/>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
@@ -15058,7 +14968,7 @@
         <v>747</v>
       </c>
       <c r="C663" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D663" s="6"/>
     </row>
@@ -15070,7 +14980,7 @@
         <v>748</v>
       </c>
       <c r="C664" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D664" s="6"/>
     </row>
@@ -15082,7 +14992,7 @@
         <v>749</v>
       </c>
       <c r="C665" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D665" s="6"/>
     </row>
@@ -15106,7 +15016,7 @@
         <v>750</v>
       </c>
       <c r="C667" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D667" s="6"/>
     </row>
@@ -15118,7 +15028,7 @@
         <v>751</v>
       </c>
       <c r="C668" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D668" s="6"/>
     </row>
@@ -15130,7 +15040,7 @@
         <v>752</v>
       </c>
       <c r="C669" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D669" s="6"/>
     </row>
@@ -15154,7 +15064,7 @@
         <v>753</v>
       </c>
       <c r="C671" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D671" s="6"/>
     </row>
@@ -15178,7 +15088,7 @@
         <v>754</v>
       </c>
       <c r="C673" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D673" s="6"/>
     </row>
@@ -15190,7 +15100,7 @@
         <v>755</v>
       </c>
       <c r="C674" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D674" s="7" t="s">
         <v>470</v>
@@ -15204,7 +15114,7 @@
         <v>756</v>
       </c>
       <c r="C675" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D675" s="6"/>
     </row>
@@ -15216,7 +15126,7 @@
         <v>757</v>
       </c>
       <c r="C676" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D676" s="6"/>
     </row>
@@ -15240,7 +15150,7 @@
         <v>758</v>
       </c>
       <c r="C678" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D678" s="6"/>
     </row>
@@ -15252,7 +15162,7 @@
         <v>759</v>
       </c>
       <c r="C679" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D679" s="6"/>
     </row>
@@ -15276,7 +15186,7 @@
         <v>760</v>
       </c>
       <c r="C681" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D681" s="6"/>
     </row>
@@ -15288,7 +15198,7 @@
         <v>761</v>
       </c>
       <c r="C682" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D682" s="6"/>
     </row>
@@ -15300,7 +15210,7 @@
         <v>762</v>
       </c>
       <c r="C683" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D683" s="6"/>
     </row>
@@ -15312,7 +15222,7 @@
         <v>763</v>
       </c>
       <c r="C684" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D684" s="6"/>
     </row>
@@ -15324,7 +15234,7 @@
         <v>764</v>
       </c>
       <c r="C685" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D685" s="6"/>
     </row>
@@ -15336,7 +15246,7 @@
         <v>765</v>
       </c>
       <c r="C686" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D686" s="6"/>
     </row>
@@ -15348,7 +15258,7 @@
         <v>766</v>
       </c>
       <c r="C687" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D687" s="7" t="s">
         <v>470</v>
@@ -15362,7 +15272,7 @@
         <v>767</v>
       </c>
       <c r="C688" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D688" s="6"/>
     </row>
@@ -15374,7 +15284,7 @@
         <v>768</v>
       </c>
       <c r="C689" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D689" s="6"/>
     </row>
@@ -15386,7 +15296,7 @@
         <v>769</v>
       </c>
       <c r="C690" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D690" s="6"/>
     </row>
@@ -15398,7 +15308,7 @@
         <v>770</v>
       </c>
       <c r="C691" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D691" s="6"/>
     </row>
@@ -15410,7 +15320,7 @@
         <v>771</v>
       </c>
       <c r="C692" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D692" s="6"/>
     </row>
@@ -15422,7 +15332,7 @@
         <v>772</v>
       </c>
       <c r="C693" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D693" s="6"/>
     </row>
@@ -15434,7 +15344,7 @@
         <v>773</v>
       </c>
       <c r="C694" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D694" s="6"/>
     </row>
@@ -15446,7 +15356,7 @@
         <v>774</v>
       </c>
       <c r="C695" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D695" s="6"/>
     </row>
@@ -15458,7 +15368,7 @@
         <v>764</v>
       </c>
       <c r="C696" s="6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D696" s="6"/>
     </row>
@@ -15482,7 +15392,7 @@
         <v>775</v>
       </c>
       <c r="C698" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D698" s="6"/>
     </row>
@@ -15494,7 +15404,7 @@
         <v>776</v>
       </c>
       <c r="C699" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D699" s="6"/>
     </row>
@@ -15506,7 +15416,7 @@
         <v>777</v>
       </c>
       <c r="C700" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D700" s="6"/>
     </row>
@@ -15518,7 +15428,7 @@
         <v>778</v>
       </c>
       <c r="C701" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D701" s="6"/>
     </row>
@@ -15554,7 +15464,7 @@
         <v>795</v>
       </c>
       <c r="C704" s="6" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D704" s="6"/>
     </row>
@@ -15566,7 +15476,7 @@
         <v>796</v>
       </c>
       <c r="C705" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D705" s="6"/>
     </row>
@@ -15578,7 +15488,7 @@
         <v>797</v>
       </c>
       <c r="C706" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D706" s="6"/>
     </row>
@@ -15590,7 +15500,7 @@
         <v>798</v>
       </c>
       <c r="C707" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D707" s="6"/>
     </row>
@@ -15602,7 +15512,7 @@
         <v>799</v>
       </c>
       <c r="C708" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D708" s="6"/>
     </row>
@@ -15614,7 +15524,7 @@
         <v>800</v>
       </c>
       <c r="C709" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D709" s="6"/>
     </row>
@@ -15626,7 +15536,7 @@
         <v>801</v>
       </c>
       <c r="C710" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D710" s="6"/>
     </row>
@@ -15638,7 +15548,7 @@
         <v>802</v>
       </c>
       <c r="C711" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D711" s="6"/>
     </row>
@@ -15650,7 +15560,7 @@
         <v>803</v>
       </c>
       <c r="C712" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D712" s="6"/>
     </row>
@@ -15662,7 +15572,7 @@
         <v>804</v>
       </c>
       <c r="C713" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D713" s="6"/>
     </row>
@@ -15674,7 +15584,7 @@
         <v>795</v>
       </c>
       <c r="C714" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D714" s="6"/>
     </row>
@@ -15686,7 +15596,7 @@
         <v>805</v>
       </c>
       <c r="C715" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D715" s="6"/>
     </row>
@@ -15698,7 +15608,7 @@
         <v>806</v>
       </c>
       <c r="C716" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D716" s="6"/>
     </row>
@@ -15710,7 +15620,7 @@
         <v>807</v>
       </c>
       <c r="C717" s="6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D717" s="6"/>
     </row>
@@ -15722,7 +15632,7 @@
         <v>808</v>
       </c>
       <c r="C718" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D718" s="6"/>
     </row>
@@ -15734,7 +15644,7 @@
         <v>809</v>
       </c>
       <c r="C719" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D719" s="6"/>
     </row>
@@ -15758,7 +15668,7 @@
         <v>810</v>
       </c>
       <c r="C721" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D721" s="6"/>
     </row>
@@ -15770,7 +15680,7 @@
         <v>811</v>
       </c>
       <c r="C722" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D722" s="6"/>
     </row>
@@ -15782,7 +15692,7 @@
         <v>812</v>
       </c>
       <c r="C723" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D723" s="6"/>
     </row>
@@ -15794,7 +15704,7 @@
         <v>813</v>
       </c>
       <c r="C724" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D724" s="6"/>
     </row>
@@ -15806,7 +15716,7 @@
         <v>814</v>
       </c>
       <c r="C725" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D725" s="6"/>
     </row>
@@ -15818,7 +15728,7 @@
         <v>815</v>
       </c>
       <c r="C726" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D726" s="6"/>
     </row>
@@ -15830,7 +15740,7 @@
         <v>816</v>
       </c>
       <c r="C727" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D727" s="6"/>
     </row>
@@ -15842,7 +15752,7 @@
         <v>817</v>
       </c>
       <c r="C728" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D728" s="6"/>
     </row>
@@ -15854,7 +15764,7 @@
         <v>818</v>
       </c>
       <c r="C729" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D729" s="6"/>
     </row>
@@ -15866,7 +15776,7 @@
         <v>819</v>
       </c>
       <c r="C730" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D730" s="6"/>
     </row>
@@ -15878,7 +15788,7 @@
         <v>820</v>
       </c>
       <c r="C731" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D731" s="6"/>
     </row>
@@ -15890,7 +15800,7 @@
         <v>821</v>
       </c>
       <c r="C732" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D732" s="6"/>
     </row>
@@ -15902,7 +15812,7 @@
         <v>822</v>
       </c>
       <c r="C733" s="6" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D733" s="6"/>
     </row>
@@ -15914,7 +15824,7 @@
         <v>823</v>
       </c>
       <c r="C734" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D734" s="6"/>
     </row>
@@ -15926,7 +15836,7 @@
         <v>824</v>
       </c>
       <c r="C735" s="6" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D735" s="6"/>
     </row>
@@ -15950,7 +15860,7 @@
         <v>825</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D737" s="6"/>
     </row>
@@ -15962,7 +15872,7 @@
         <v>826</v>
       </c>
       <c r="C738" s="6" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D738" s="6"/>
     </row>
@@ -15974,7 +15884,7 @@
         <v>827</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D739" s="6"/>
     </row>
@@ -15986,7 +15896,7 @@
         <v>828</v>
       </c>
       <c r="C740" s="6" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D740" s="6"/>
     </row>
@@ -15998,7 +15908,7 @@
         <v>829</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D741" s="6"/>
     </row>
@@ -16010,7 +15920,7 @@
         <v>830</v>
       </c>
       <c r="C742" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D742" s="6"/>
     </row>
@@ -16022,7 +15932,7 @@
         <v>831</v>
       </c>
       <c r="C743" s="6" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D743" s="6"/>
     </row>
@@ -16034,7 +15944,7 @@
         <v>832</v>
       </c>
       <c r="C744" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D744" s="6"/>
     </row>
@@ -16046,7 +15956,7 @@
         <v>833</v>
       </c>
       <c r="C745" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D745" s="6"/>
     </row>
@@ -16058,7 +15968,7 @@
         <v>834</v>
       </c>
       <c r="C746" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D746" s="6"/>
     </row>
@@ -16070,7 +15980,7 @@
         <v>835</v>
       </c>
       <c r="C747" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D747" s="7" t="s">
         <v>470</v>
@@ -16084,7 +15994,7 @@
         <v>836</v>
       </c>
       <c r="C748" s="6" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D748" s="7" t="s">
         <v>470</v>
@@ -16110,7 +16020,7 @@
         <v>837</v>
       </c>
       <c r="C750" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D750" s="7"/>
     </row>
@@ -16122,7 +16032,7 @@
         <v>838</v>
       </c>
       <c r="C751" s="6" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D751" s="7"/>
     </row>
@@ -16134,7 +16044,7 @@
         <v>839</v>
       </c>
       <c r="C752" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D752" s="7" t="s">
         <v>470</v>
@@ -16148,7 +16058,7 @@
         <v>840</v>
       </c>
       <c r="C753" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D753" s="7" t="s">
         <v>470</v>
@@ -16162,7 +16072,7 @@
         <v>841</v>
       </c>
       <c r="C754" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D754" s="7" t="s">
         <v>470</v>
@@ -16188,7 +16098,7 @@
         <v>842</v>
       </c>
       <c r="C756" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D756" s="6"/>
     </row>
@@ -16200,7 +16110,7 @@
         <v>843</v>
       </c>
       <c r="C757" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D757" s="6"/>
     </row>
@@ -16212,7 +16122,7 @@
         <v>647</v>
       </c>
       <c r="C758" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D758" s="6"/>
     </row>
@@ -16224,7 +16134,7 @@
         <v>639</v>
       </c>
       <c r="C759" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D759" s="6"/>
     </row>
@@ -16236,7 +16146,7 @@
         <v>844</v>
       </c>
       <c r="C760" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D760" s="6"/>
     </row>
@@ -16248,7 +16158,7 @@
         <v>641</v>
       </c>
       <c r="C761" s="6" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D761" s="6"/>
     </row>
@@ -16260,7 +16170,7 @@
         <v>642</v>
       </c>
       <c r="C762" s="6" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D762" s="6"/>
     </row>
@@ -16272,7 +16182,7 @@
         <v>643</v>
       </c>
       <c r="C763" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D763" s="6"/>
     </row>
@@ -16284,7 +16194,7 @@
         <v>644</v>
       </c>
       <c r="C764" s="6" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D764" s="6"/>
     </row>
@@ -16296,7 +16206,7 @@
         <v>645</v>
       </c>
       <c r="C765" s="6" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D765" s="6"/>
     </row>
@@ -16308,7 +16218,7 @@
         <v>646</v>
       </c>
       <c r="C766" s="6" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D766" s="6"/>
     </row>
@@ -16320,7 +16230,7 @@
         <v>845</v>
       </c>
       <c r="C767" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D767" s="6"/>
     </row>
@@ -16344,7 +16254,7 @@
         <v>846</v>
       </c>
       <c r="C769" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D769" s="6"/>
     </row>
@@ -16356,7 +16266,7 @@
         <v>847</v>
       </c>
       <c r="C770" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D770" s="6"/>
     </row>
@@ -16368,7 +16278,7 @@
         <v>848</v>
       </c>
       <c r="C771" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D771" s="6"/>
     </row>
@@ -16392,7 +16302,7 @@
         <v>836</v>
       </c>
       <c r="C773" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D773" s="6"/>
     </row>
@@ -16404,7 +16314,7 @@
         <v>839</v>
       </c>
       <c r="C774" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D774" s="6"/>
     </row>
@@ -16416,7 +16326,7 @@
         <v>840</v>
       </c>
       <c r="C775" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D775" s="6"/>
     </row>
@@ -16428,7 +16338,7 @@
         <v>841</v>
       </c>
       <c r="C776" s="6" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D776" s="6"/>
     </row>
@@ -16440,7 +16350,7 @@
         <v>849</v>
       </c>
       <c r="C777" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D777" s="6"/>
     </row>
@@ -16452,7 +16362,7 @@
         <v>850</v>
       </c>
       <c r="C778" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D778" s="6"/>
     </row>
@@ -16464,7 +16374,7 @@
         <v>851</v>
       </c>
       <c r="C779" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D779" s="6"/>
     </row>
@@ -16476,7 +16386,7 @@
         <v>852</v>
       </c>
       <c r="C780" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D780" s="6"/>
     </row>
@@ -16500,7 +16410,7 @@
         <v>786</v>
       </c>
       <c r="C782" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D782" s="6"/>
     </row>
@@ -16536,7 +16446,7 @@
         <v>865</v>
       </c>
       <c r="C785" s="6" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D785" s="7" t="s">
         <v>470</v>
@@ -16550,7 +16460,7 @@
         <v>866</v>
       </c>
       <c r="C786" s="6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D786" s="6"/>
     </row>
@@ -16562,7 +16472,7 @@
         <v>867</v>
       </c>
       <c r="C787" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D787" s="6"/>
     </row>
@@ -16586,7 +16496,7 @@
         <v>868</v>
       </c>
       <c r="C789" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D789" s="6"/>
     </row>
@@ -16598,7 +16508,7 @@
         <v>869</v>
       </c>
       <c r="C790" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D790" s="6"/>
     </row>
@@ -16622,7 +16532,7 @@
         <v>870</v>
       </c>
       <c r="C792" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D792" s="6"/>
     </row>
@@ -16634,7 +16544,7 @@
         <v>871</v>
       </c>
       <c r="C793" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D793" s="6"/>
     </row>
@@ -16646,7 +16556,7 @@
         <v>872</v>
       </c>
       <c r="C794" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D794" s="6"/>
     </row>
@@ -16658,7 +16568,7 @@
         <v>873</v>
       </c>
       <c r="C795" s="6" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D795" s="6"/>
     </row>
@@ -16670,7 +16580,7 @@
         <v>874</v>
       </c>
       <c r="C796" s="6" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D796" s="6"/>
     </row>
@@ -16682,7 +16592,7 @@
         <v>875</v>
       </c>
       <c r="C797" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D797" s="6"/>
     </row>
@@ -16694,7 +16604,7 @@
         <v>876</v>
       </c>
       <c r="C798" s="6" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D798" s="6"/>
     </row>
@@ -16706,7 +16616,7 @@
         <v>877</v>
       </c>
       <c r="C799" s="6" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D799" s="6"/>
     </row>
@@ -16718,7 +16628,7 @@
         <v>878</v>
       </c>
       <c r="C800" s="6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D800" s="6"/>
     </row>
@@ -16730,7 +16640,7 @@
         <v>879</v>
       </c>
       <c r="C801" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D801" s="6"/>
     </row>
@@ -16742,7 +16652,7 @@
         <v>880</v>
       </c>
       <c r="C802" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D802" s="7" t="s">
         <v>470</v>
@@ -16756,7 +16666,7 @@
         <v>881</v>
       </c>
       <c r="C803" s="6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D803" s="6"/>
     </row>
@@ -16768,7 +16678,7 @@
         <v>882</v>
       </c>
       <c r="C804" s="6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D804" s="6"/>
     </row>
@@ -16780,7 +16690,7 @@
         <v>883</v>
       </c>
       <c r="C805" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D805" s="6"/>
     </row>
@@ -16792,7 +16702,7 @@
         <v>884</v>
       </c>
       <c r="C806" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D806" s="6"/>
     </row>
@@ -16816,7 +16726,7 @@
         <v>885</v>
       </c>
       <c r="C808" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D808" s="6"/>
     </row>
@@ -16828,7 +16738,7 @@
         <v>886</v>
       </c>
       <c r="C809" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D809" s="6"/>
     </row>
@@ -16840,7 +16750,7 @@
         <v>887</v>
       </c>
       <c r="C810" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D810" s="6"/>
     </row>
@@ -16852,7 +16762,7 @@
         <v>888</v>
       </c>
       <c r="C811" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D811" s="6"/>
     </row>
@@ -16864,7 +16774,7 @@
         <v>889</v>
       </c>
       <c r="C812" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D812" s="6"/>
     </row>
@@ -16876,7 +16786,7 @@
         <v>890</v>
       </c>
       <c r="C813" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D813" s="6"/>
     </row>
@@ -16888,7 +16798,7 @@
         <v>891</v>
       </c>
       <c r="C814" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D814" s="6"/>
     </row>
@@ -16900,7 +16810,7 @@
         <v>892</v>
       </c>
       <c r="C815" s="6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D815" s="6"/>
     </row>
@@ -16912,7 +16822,7 @@
         <v>893</v>
       </c>
       <c r="C816" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D816" s="6"/>
     </row>
@@ -16924,7 +16834,7 @@
         <v>894</v>
       </c>
       <c r="C817" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D817" s="6"/>
     </row>
@@ -16936,7 +16846,7 @@
         <v>895</v>
       </c>
       <c r="C818" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D818" s="6"/>
     </row>
@@ -16948,7 +16858,7 @@
         <v>896</v>
       </c>
       <c r="C819" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D819" s="6"/>
     </row>
@@ -16960,7 +16870,7 @@
         <v>897</v>
       </c>
       <c r="C820" s="6" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D820" s="6"/>
     </row>
@@ -16972,7 +16882,7 @@
         <v>898</v>
       </c>
       <c r="C821" s="6" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D821" s="6"/>
     </row>
@@ -16996,7 +16906,7 @@
         <v>899</v>
       </c>
       <c r="C823" s="6" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D823" s="6"/>
     </row>
@@ -17008,7 +16918,7 @@
         <v>900</v>
       </c>
       <c r="C824" s="6" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D824" s="6"/>
     </row>
@@ -17020,7 +16930,7 @@
         <v>901</v>
       </c>
       <c r="C825" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D825" s="6"/>
     </row>
@@ -17032,7 +16942,7 @@
         <v>902</v>
       </c>
       <c r="C826" s="6" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D826" s="6"/>
     </row>
@@ -17044,7 +16954,7 @@
         <v>903</v>
       </c>
       <c r="C827" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D827" s="6"/>
     </row>
@@ -17056,7 +16966,7 @@
         <v>904</v>
       </c>
       <c r="C828" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D828" s="6"/>
     </row>
@@ -17068,7 +16978,7 @@
         <v>905</v>
       </c>
       <c r="C829" s="6" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D829" s="6"/>
     </row>
@@ -17080,7 +16990,7 @@
         <v>906</v>
       </c>
       <c r="C830" s="6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D830" s="6"/>
     </row>
@@ -17092,7 +17002,7 @@
         <v>907</v>
       </c>
       <c r="C831" s="6" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D831" s="6"/>
     </row>
@@ -17104,7 +17014,7 @@
         <v>908</v>
       </c>
       <c r="C832" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D832" s="6"/>
     </row>
@@ -17116,7 +17026,7 @@
         <v>909</v>
       </c>
       <c r="C833" s="6" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D833" s="6"/>
     </row>
@@ -17128,7 +17038,7 @@
         <v>910</v>
       </c>
       <c r="C834" s="6" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D834" s="6"/>
     </row>
@@ -17140,7 +17050,7 @@
         <v>911</v>
       </c>
       <c r="C835" s="6" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D835" s="6"/>
     </row>
@@ -17152,7 +17062,7 @@
         <v>912</v>
       </c>
       <c r="C836" s="6" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D836" s="6"/>
     </row>
@@ -17176,7 +17086,7 @@
         <v>636</v>
       </c>
       <c r="C838" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D838" s="6"/>
     </row>
@@ -17188,7 +17098,7 @@
         <v>913</v>
       </c>
       <c r="C839" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D839" s="6"/>
     </row>
@@ -17200,7 +17110,7 @@
         <v>914</v>
       </c>
       <c r="C840" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D840" s="6"/>
     </row>
@@ -17212,7 +17122,7 @@
         <v>915</v>
       </c>
       <c r="C841" s="7" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D841" s="6"/>
     </row>
@@ -17236,7 +17146,7 @@
         <v>916</v>
       </c>
       <c r="C843" s="6" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D843" s="6"/>
     </row>
@@ -17248,7 +17158,7 @@
         <v>917</v>
       </c>
       <c r="C844" s="6" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D844" s="6"/>
     </row>
@@ -17260,7 +17170,7 @@
         <v>918</v>
       </c>
       <c r="C845" s="6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D845" s="6"/>
     </row>
@@ -17272,7 +17182,7 @@
         <v>919</v>
       </c>
       <c r="C846" s="6" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D846" s="6"/>
     </row>
@@ -17284,7 +17194,7 @@
         <v>920</v>
       </c>
       <c r="C847" s="6" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D847" s="6"/>
     </row>
@@ -17296,7 +17206,7 @@
         <v>921</v>
       </c>
       <c r="C848" s="6" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D848" s="6"/>
     </row>
@@ -17308,7 +17218,7 @@
         <v>922</v>
       </c>
       <c r="C849" s="6" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D849" s="6"/>
     </row>
@@ -17319,9 +17229,7 @@
       <c r="C850" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D850" s="6">
-        <v>2</v>
-      </c>
+      <c r="D850" s="6"/>
     </row>
     <row r="851" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A851" s="6" t="s">
@@ -17331,7 +17239,7 @@
         <v>923</v>
       </c>
       <c r="C851" s="6" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D851" s="7" t="s">
         <v>470</v>
@@ -17345,7 +17253,7 @@
         <v>924</v>
       </c>
       <c r="C852" s="6" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D852" s="6"/>
     </row>
@@ -17357,7 +17265,7 @@
         <v>925</v>
       </c>
       <c r="C853" s="6" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D853" s="6"/>
     </row>
@@ -17369,7 +17277,7 @@
         <v>926</v>
       </c>
       <c r="C854" s="6" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D854" s="6"/>
     </row>
@@ -17381,7 +17289,7 @@
         <v>927</v>
       </c>
       <c r="C855" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D855" s="6"/>
     </row>
@@ -17393,7 +17301,7 @@
         <v>928</v>
       </c>
       <c r="C856" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D856" s="6"/>
     </row>
@@ -17405,7 +17313,7 @@
         <v>929</v>
       </c>
       <c r="C857" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D857" s="7" t="s">
         <v>470</v>
@@ -17419,7 +17327,7 @@
         <v>930</v>
       </c>
       <c r="C858" s="6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D858" s="6"/>
     </row>
@@ -17431,7 +17339,7 @@
         <v>931</v>
       </c>
       <c r="C859" s="6" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D859" s="6"/>
     </row>
@@ -17443,7 +17351,7 @@
         <v>932</v>
       </c>
       <c r="C860" s="6" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D860" s="6"/>
     </row>
@@ -17455,7 +17363,7 @@
         <v>933</v>
       </c>
       <c r="C861" s="6" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D861" s="6"/>
     </row>
@@ -17467,7 +17375,7 @@
         <v>934</v>
       </c>
       <c r="C862" s="6" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D862" s="6"/>
     </row>
